--- a/results/mp/tinybert/home-spam/confidence/42/stop-words-topk-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/42/stop-words-topk-0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="82">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,211 +43,214 @@
     <t>poorly</t>
   </si>
   <si>
+    <t>stopped</t>
+  </si>
+  <si>
     <t>disappointed</t>
   </si>
   <si>
-    <t>broke</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
     <t>loves</t>
   </si>
   <si>
+    <t>excellent</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>excellent</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>salad</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>pleased</t>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>great</t>
   </si>
   <si>
     <t>beautiful</t>
   </si>
   <si>
-    <t>perfect</t>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>glad</t>
   </si>
   <si>
     <t>husband</t>
   </si>
   <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
     <t>daughter</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>happy</t>
+    <t>cake</t>
   </si>
   <si>
     <t>cooke</t>
   </si>
   <si>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>comfortable</t>
+  </si>
+  <si>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
     <t>wife</t>
   </si>
   <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>comfortable</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
     <t>potatoes</t>
   </si>
   <si>
     <t>perfectly</t>
   </si>
   <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>ze</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
     <t>tea</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>pie</t>
-  </si>
-  <si>
-    <t>popcorn</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>ze</t>
-  </si>
-  <si>
     <t>cooking</t>
   </si>
   <si>
-    <t>kitchen</t>
-  </si>
-  <si>
     <t>day</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
+    <t>gr</t>
+  </si>
+  <si>
+    <t>keeps</t>
+  </si>
+  <si>
     <t>pan</t>
   </si>
   <si>
-    <t>gr</t>
-  </si>
-  <si>
-    <t>keeps</t>
+    <t>every</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>far</t>
+  </si>
+  <si>
+    <t>new</t>
   </si>
   <si>
     <t>works</t>
   </si>
   <si>
-    <t>dish</t>
-  </si>
-  <si>
-    <t>exactly</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
     <t>recommend</t>
   </si>
   <si>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>big</t>
+  </si>
+  <si>
+    <t>hot</t>
+  </si>
+  <si>
     <t>coffee</t>
   </si>
   <si>
-    <t>hot</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>every</t>
+    <t>little</t>
   </si>
   <si>
     <t>clean</t>
   </si>
   <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>little</t>
+    <t>job</t>
+  </si>
+  <si>
+    <t>quality</t>
   </si>
   <si>
     <t>make</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>makes</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
     <t>really</t>
   </si>
   <si>
-    <t>makes</t>
-  </si>
-  <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>one</t>
+    <t>much</t>
   </si>
   <si>
     <t>time</t>
@@ -614,7 +617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q70"/>
+  <dimension ref="A1:Q71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -625,7 +628,7 @@
         <v>11</v>
       </c>
       <c r="J1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -683,13 +686,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8275862068965517</v>
+        <v>0.896551724137931</v>
       </c>
       <c r="C3">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -701,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3">
-        <v>0.9354838709677419</v>
+        <v>0.967741935483871</v>
       </c>
       <c r="L3">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M3">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -725,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -733,13 +736,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.2945736434108527</v>
+        <v>0.4339622641509434</v>
       </c>
       <c r="C4">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="D4">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -751,19 +754,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>91</v>
+        <v>30</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K4">
-        <v>0.8695652173913043</v>
+        <v>0.9140625</v>
       </c>
       <c r="L4">
-        <v>60</v>
+        <v>117</v>
       </c>
       <c r="M4">
-        <v>60</v>
+        <v>117</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -775,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -783,13 +786,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.1351351351351351</v>
+        <v>0.3178294573643411</v>
       </c>
       <c r="C5">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="D5">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -801,19 +804,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>160</v>
+        <v>88</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K5">
-        <v>0.8671875</v>
+        <v>0.855072463768116</v>
       </c>
       <c r="L5">
-        <v>111</v>
+        <v>59</v>
       </c>
       <c r="M5">
-        <v>111</v>
+        <v>59</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -825,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -833,13 +836,13 @@
         <v>15</v>
       </c>
       <c r="K6">
-        <v>0.8513931888544891</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="L6">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="M6">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -851,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -859,13 +862,13 @@
         <v>16</v>
       </c>
       <c r="K7">
-        <v>0.7402597402597403</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L7">
-        <v>171</v>
+        <v>23</v>
       </c>
       <c r="M7">
-        <v>171</v>
+        <v>23</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -877,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>60</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -885,13 +888,13 @@
         <v>17</v>
       </c>
       <c r="K8">
-        <v>0.7173913043478261</v>
+        <v>0.7608695652173914</v>
       </c>
       <c r="L8">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M8">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -903,7 +906,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -911,13 +914,13 @@
         <v>18</v>
       </c>
       <c r="K9">
-        <v>0.7142857142857143</v>
+        <v>0.7532467532467533</v>
       </c>
       <c r="L9">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M9">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -929,7 +932,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -937,13 +940,13 @@
         <v>19</v>
       </c>
       <c r="K10">
-        <v>0.6590909090909091</v>
+        <v>0.726027397260274</v>
       </c>
       <c r="L10">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="M10">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -955,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -963,13 +966,13 @@
         <v>20</v>
       </c>
       <c r="K11">
-        <v>0.6508474576271186</v>
+        <v>0.7056277056277056</v>
       </c>
       <c r="L11">
-        <v>192</v>
+        <v>163</v>
       </c>
       <c r="M11">
-        <v>192</v>
+        <v>163</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -981,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>103</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -989,13 +992,13 @@
         <v>21</v>
       </c>
       <c r="K12">
-        <v>0.6491228070175439</v>
+        <v>0.688135593220339</v>
       </c>
       <c r="L12">
-        <v>37</v>
+        <v>203</v>
       </c>
       <c r="M12">
-        <v>37</v>
+        <v>203</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1007,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>20</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1015,13 +1018,13 @@
         <v>22</v>
       </c>
       <c r="K13">
-        <v>0.6438356164383562</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L13">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="M13">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1033,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1041,13 +1044,13 @@
         <v>23</v>
       </c>
       <c r="K14">
-        <v>0.6338028169014085</v>
+        <v>0.647887323943662</v>
       </c>
       <c r="L14">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M14">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1059,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1067,13 +1070,13 @@
         <v>24</v>
       </c>
       <c r="K15">
-        <v>0.6323529411764706</v>
+        <v>0.6461538461538462</v>
       </c>
       <c r="L15">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M15">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1085,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1093,13 +1096,13 @@
         <v>25</v>
       </c>
       <c r="K16">
-        <v>0.6285714285714286</v>
+        <v>0.6457142857142857</v>
       </c>
       <c r="L16">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="M16">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1111,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>26</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1119,13 +1122,13 @@
         <v>26</v>
       </c>
       <c r="K17">
-        <v>0.622792937399679</v>
+        <v>0.6364365971107544</v>
       </c>
       <c r="L17">
-        <v>776</v>
+        <v>793</v>
       </c>
       <c r="M17">
-        <v>776</v>
+        <v>793</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1137,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>470</v>
+        <v>453</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1145,7 +1148,7 @@
         <v>27</v>
       </c>
       <c r="K18">
-        <v>0.6222222222222222</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L18">
         <v>28</v>
@@ -1163,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1171,13 +1174,13 @@
         <v>28</v>
       </c>
       <c r="K19">
-        <v>0.6</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="L19">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="M19">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1189,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>70</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1197,13 +1200,13 @@
         <v>29</v>
       </c>
       <c r="K20">
-        <v>0.5726495726495726</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="L20">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="M20">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1215,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>50</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1223,13 +1226,13 @@
         <v>30</v>
       </c>
       <c r="K21">
-        <v>0.5694444444444444</v>
+        <v>0.5964912280701754</v>
       </c>
       <c r="L21">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="M21">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1241,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1249,13 +1252,13 @@
         <v>31</v>
       </c>
       <c r="K22">
-        <v>0.515625</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L22">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="M22">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1267,7 +1270,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1275,13 +1278,13 @@
         <v>32</v>
       </c>
       <c r="K23">
-        <v>0.5112781954887218</v>
+        <v>0.5673076923076923</v>
       </c>
       <c r="L23">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="M23">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1293,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>65</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1301,13 +1304,13 @@
         <v>33</v>
       </c>
       <c r="K24">
-        <v>0.5060240963855421</v>
+        <v>0.5213675213675214</v>
       </c>
       <c r="L24">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="M24">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1319,7 +1322,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>41</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1327,13 +1330,13 @@
         <v>34</v>
       </c>
       <c r="K25">
-        <v>0.5</v>
+        <v>0.515625</v>
       </c>
       <c r="L25">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="M25">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1345,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1353,13 +1356,13 @@
         <v>35</v>
       </c>
       <c r="K26">
-        <v>0.4923076923076923</v>
+        <v>0.5060240963855421</v>
       </c>
       <c r="L26">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="M26">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1371,7 +1374,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1379,13 +1382,13 @@
         <v>36</v>
       </c>
       <c r="K27">
-        <v>0.4910179640718563</v>
+        <v>0.4918032786885246</v>
       </c>
       <c r="L27">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="M27">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1397,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>85</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1405,13 +1408,13 @@
         <v>37</v>
       </c>
       <c r="K28">
-        <v>0.4807692307692308</v>
+        <v>0.4901960784313725</v>
       </c>
       <c r="L28">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="M28">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1423,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>54</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1431,13 +1434,13 @@
         <v>38</v>
       </c>
       <c r="K29">
-        <v>0.4754098360655737</v>
+        <v>0.463855421686747</v>
       </c>
       <c r="L29">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="M29">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1449,7 +1452,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>32</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1457,25 +1460,25 @@
         <v>39</v>
       </c>
       <c r="K30">
-        <v>0.4397590361445783</v>
+        <v>0.4511278195488722</v>
       </c>
       <c r="L30">
+        <v>60</v>
+      </c>
+      <c r="M30">
+        <v>60</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
         <v>73</v>
-      </c>
-      <c r="M30">
-        <v>73</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>93</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1483,13 +1486,13 @@
         <v>40</v>
       </c>
       <c r="K31">
-        <v>0.4285714285714285</v>
+        <v>0.44</v>
       </c>
       <c r="L31">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="M31">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1501,7 +1504,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>36</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1509,13 +1512,13 @@
         <v>41</v>
       </c>
       <c r="K32">
-        <v>0.3947368421052632</v>
+        <v>0.437125748502994</v>
       </c>
       <c r="L32">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="M32">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1527,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>46</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1535,13 +1538,13 @@
         <v>42</v>
       </c>
       <c r="K33">
-        <v>0.3884892086330936</v>
+        <v>0.4305555555555556</v>
       </c>
       <c r="L33">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="M33">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1553,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>85</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1561,13 +1564,13 @@
         <v>43</v>
       </c>
       <c r="K34">
-        <v>0.3848039215686275</v>
+        <v>0.4126984126984127</v>
       </c>
       <c r="L34">
-        <v>157</v>
+        <v>26</v>
       </c>
       <c r="M34">
-        <v>157</v>
+        <v>26</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1579,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>251</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1587,13 +1590,13 @@
         <v>44</v>
       </c>
       <c r="K35">
-        <v>0.3813229571984436</v>
+        <v>0.3815789473684211</v>
       </c>
       <c r="L35">
-        <v>98</v>
+        <v>29</v>
       </c>
       <c r="M35">
-        <v>98</v>
+        <v>29</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1605,7 +1608,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>159</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1613,13 +1616,13 @@
         <v>45</v>
       </c>
       <c r="K36">
-        <v>0.38</v>
+        <v>0.3774509803921569</v>
       </c>
       <c r="L36">
-        <v>38</v>
+        <v>154</v>
       </c>
       <c r="M36">
-        <v>38</v>
+        <v>154</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1631,7 +1634,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>62</v>
+        <v>254</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1665,13 +1668,13 @@
         <v>47</v>
       </c>
       <c r="K38">
-        <v>0.3421052631578947</v>
+        <v>0.3424124513618677</v>
       </c>
       <c r="L38">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="M38">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1683,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>50</v>
+        <v>169</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1691,13 +1694,13 @@
         <v>48</v>
       </c>
       <c r="K39">
-        <v>0.3328767123287671</v>
+        <v>0.3383458646616541</v>
       </c>
       <c r="L39">
-        <v>243</v>
+        <v>45</v>
       </c>
       <c r="M39">
-        <v>243</v>
+        <v>45</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1709,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>487</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1717,13 +1720,13 @@
         <v>49</v>
       </c>
       <c r="K40">
-        <v>0.3308270676691729</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L40">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="M40">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1735,7 +1738,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>89</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1743,13 +1746,13 @@
         <v>50</v>
       </c>
       <c r="K41">
-        <v>0.3209876543209876</v>
+        <v>0.3301435406698565</v>
       </c>
       <c r="L41">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="M41">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1761,7 +1764,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>55</v>
+        <v>140</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1769,13 +1772,13 @@
         <v>51</v>
       </c>
       <c r="K42">
-        <v>0.2882882882882883</v>
+        <v>0.3191780821917808</v>
       </c>
       <c r="L42">
-        <v>32</v>
+        <v>233</v>
       </c>
       <c r="M42">
-        <v>32</v>
+        <v>233</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1787,7 +1790,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>79</v>
+        <v>497</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1795,13 +1798,13 @@
         <v>52</v>
       </c>
       <c r="K43">
-        <v>0.2631578947368421</v>
+        <v>0.2949640287769784</v>
       </c>
       <c r="L43">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="M43">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1813,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>154</v>
+        <v>98</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1821,13 +1824,13 @@
         <v>53</v>
       </c>
       <c r="K44">
-        <v>0.2574257425742574</v>
+        <v>0.2882882882882883</v>
       </c>
       <c r="L44">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="M44">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1839,7 +1842,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1847,13 +1850,13 @@
         <v>54</v>
       </c>
       <c r="K45">
-        <v>0.2561894510226049</v>
+        <v>0.2673267326732673</v>
       </c>
       <c r="L45">
-        <v>238</v>
+        <v>27</v>
       </c>
       <c r="M45">
-        <v>238</v>
+        <v>27</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1865,7 +1868,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>691</v>
+        <v>74</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -1873,13 +1876,13 @@
         <v>55</v>
       </c>
       <c r="K46">
-        <v>0.2288401253918495</v>
+        <v>0.2583423035522067</v>
       </c>
       <c r="L46">
-        <v>73</v>
+        <v>240</v>
       </c>
       <c r="M46">
-        <v>73</v>
+        <v>240</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1891,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>246</v>
+        <v>689</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -1899,13 +1902,13 @@
         <v>56</v>
       </c>
       <c r="K47">
-        <v>0.219047619047619</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="L47">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M47">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -1917,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -1925,13 +1928,13 @@
         <v>57</v>
       </c>
       <c r="K48">
-        <v>0.2185430463576159</v>
+        <v>0.2317880794701987</v>
       </c>
       <c r="L48">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M48">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -1943,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -1951,13 +1954,13 @@
         <v>58</v>
       </c>
       <c r="K49">
-        <v>0.2145695364238411</v>
+        <v>0.2225705329153605</v>
       </c>
       <c r="L49">
-        <v>162</v>
+        <v>71</v>
       </c>
       <c r="M49">
-        <v>162</v>
+        <v>71</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -1969,7 +1972,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>593</v>
+        <v>248</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -1977,13 +1980,13 @@
         <v>59</v>
       </c>
       <c r="K50">
-        <v>0.2018348623853211</v>
+        <v>0.2073170731707317</v>
       </c>
       <c r="L50">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="M50">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -1995,7 +1998,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>87</v>
+        <v>130</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -2003,25 +2006,25 @@
         <v>60</v>
       </c>
       <c r="K51">
-        <v>0.1964285714285714</v>
+        <v>0.1994884910485933</v>
       </c>
       <c r="L51">
-        <v>22</v>
+        <v>156</v>
       </c>
       <c r="M51">
-        <v>23</v>
+        <v>156</v>
       </c>
       <c r="N51">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O51">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51">
-        <v>90</v>
+        <v>626</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2029,13 +2032,13 @@
         <v>61</v>
       </c>
       <c r="K52">
-        <v>0.1879795396419437</v>
+        <v>0.1967213114754098</v>
       </c>
       <c r="L52">
-        <v>147</v>
+        <v>24</v>
       </c>
       <c r="M52">
-        <v>147</v>
+        <v>24</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2047,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>635</v>
+        <v>98</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2055,13 +2058,13 @@
         <v>62</v>
       </c>
       <c r="K53">
-        <v>0.174496644295302</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="L53">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M53">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2073,7 +2076,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2081,25 +2084,25 @@
         <v>63</v>
       </c>
       <c r="K54">
-        <v>0.1653116531165312</v>
+        <v>0.1933774834437086</v>
       </c>
       <c r="L54">
-        <v>61</v>
+        <v>146</v>
       </c>
       <c r="M54">
-        <v>63</v>
+        <v>146</v>
       </c>
       <c r="N54">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O54">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54">
-        <v>308</v>
+        <v>609</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2107,13 +2110,13 @@
         <v>64</v>
       </c>
       <c r="K55">
-        <v>0.1477272727272727</v>
+        <v>0.1590296495956873</v>
       </c>
       <c r="L55">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="M55">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2125,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>375</v>
+        <v>312</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2133,13 +2136,13 @@
         <v>65</v>
       </c>
       <c r="K56">
-        <v>0.138655462184874</v>
+        <v>0.1557177615571776</v>
       </c>
       <c r="L56">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="M56">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2151,7 +2154,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>205</v>
+        <v>347</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2159,13 +2162,13 @@
         <v>66</v>
       </c>
       <c r="K57">
-        <v>0.1355932203389831</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="L57">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M57">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2177,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2185,13 +2188,13 @@
         <v>67</v>
       </c>
       <c r="K58">
-        <v>0.1341463414634146</v>
+        <v>0.1302521008403361</v>
       </c>
       <c r="L58">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="M58">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2203,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>142</v>
+        <v>207</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2211,13 +2214,13 @@
         <v>68</v>
       </c>
       <c r="K59">
-        <v>0.1337719298245614</v>
+        <v>0.125</v>
       </c>
       <c r="L59">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="M59">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2229,7 +2232,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>395</v>
+        <v>385</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -2237,13 +2240,13 @@
         <v>69</v>
       </c>
       <c r="K60">
-        <v>0.1313868613138686</v>
+        <v>0.1099656357388316</v>
       </c>
       <c r="L60">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="M60">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2255,7 +2258,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>357</v>
+        <v>259</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -2263,13 +2266,13 @@
         <v>70</v>
       </c>
       <c r="K61">
-        <v>0.1057692307692308</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="L61">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="M61">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2281,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>186</v>
+        <v>408</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -2289,13 +2292,13 @@
         <v>71</v>
       </c>
       <c r="K62">
-        <v>0.1030927835051546</v>
+        <v>0.1048387096774194</v>
       </c>
       <c r="L62">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M62">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2307,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>261</v>
+        <v>222</v>
       </c>
     </row>
     <row r="63" spans="10:17">
@@ -2315,13 +2318,13 @@
         <v>72</v>
       </c>
       <c r="K63">
-        <v>0.0962962962962963</v>
+        <v>0.09785202863961814</v>
       </c>
       <c r="L63">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="M63">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2333,7 +2336,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>244</v>
+        <v>378</v>
       </c>
     </row>
     <row r="64" spans="10:17">
@@ -2341,13 +2344,13 @@
         <v>73</v>
       </c>
       <c r="K64">
-        <v>0.09562841530054644</v>
+        <v>0.09259259259259259</v>
       </c>
       <c r="L64">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="M64">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -2359,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>331</v>
+        <v>245</v>
       </c>
     </row>
     <row r="65" spans="10:17">
@@ -2367,25 +2370,25 @@
         <v>74</v>
       </c>
       <c r="K65">
-        <v>0.09259259259259259</v>
+        <v>0.09182209469153516</v>
       </c>
       <c r="L65">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="M65">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="N65">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="O65">
-        <v>0.04000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P65" t="b">
         <v>1</v>
       </c>
       <c r="Q65">
-        <v>245</v>
+        <v>633</v>
       </c>
     </row>
     <row r="66" spans="10:17">
@@ -2393,13 +2396,13 @@
         <v>75</v>
       </c>
       <c r="K66">
-        <v>0.08353221957040573</v>
+        <v>0.08487084870848709</v>
       </c>
       <c r="L66">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="M66">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2411,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>384</v>
+        <v>248</v>
       </c>
     </row>
     <row r="67" spans="10:17">
@@ -2419,25 +2422,25 @@
         <v>76</v>
       </c>
       <c r="K67">
-        <v>0.08321377331420372</v>
+        <v>0.0765639589169001</v>
       </c>
       <c r="L67">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="M67">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="N67">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="O67">
-        <v>0.02000000000000002</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P67" t="b">
         <v>1</v>
       </c>
       <c r="Q67">
-        <v>639</v>
+        <v>989</v>
       </c>
     </row>
     <row r="68" spans="10:17">
@@ -2445,25 +2448,25 @@
         <v>77</v>
       </c>
       <c r="K68">
-        <v>0.07109448082319925</v>
+        <v>0.07103825136612021</v>
       </c>
       <c r="L68">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="M68">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="N68">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O68">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q68">
-        <v>993</v>
+        <v>340</v>
       </c>
     </row>
     <row r="69" spans="10:17">
@@ -2471,25 +2474,25 @@
         <v>78</v>
       </c>
       <c r="K69">
-        <v>0.05730129390018484</v>
+        <v>0.06318681318681318</v>
       </c>
       <c r="L69">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="M69">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="N69">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="O69">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P69" t="b">
         <v>1</v>
       </c>
       <c r="Q69">
-        <v>510</v>
+        <v>341</v>
       </c>
     </row>
     <row r="70" spans="10:17">
@@ -2497,25 +2500,51 @@
         <v>79</v>
       </c>
       <c r="K70">
-        <v>0.03996524761077324</v>
+        <v>0.05535055350553506</v>
       </c>
       <c r="L70">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="M70">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="N70">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="O70">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q70">
-        <v>1105</v>
+        <v>512</v>
+      </c>
+    </row>
+    <row r="71" spans="10:17">
+      <c r="J71" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K71">
+        <v>0.046875</v>
+      </c>
+      <c r="L71">
+        <v>54</v>
+      </c>
+      <c r="M71">
+        <v>59</v>
+      </c>
+      <c r="N71">
+        <v>0.92</v>
+      </c>
+      <c r="O71">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P71" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q71">
+        <v>1098</v>
       </c>
     </row>
   </sheetData>
